--- a/fileHandler/package.xlsx
+++ b/fileHandler/package.xlsx
@@ -288,7 +288,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -300,7 +300,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="39.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="39.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -489,7 +489,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" s="7" customFormat="true" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="7" customFormat="true" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>8</v>
       </c>
